--- a/Question Interview/Question Bank.xlsx
+++ b/Question Interview/Question Bank.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Interview\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\Repositories\Question Interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4222,7 +4222,8 @@
 I'm fine. I am very interesting to interview with you. So, can i introduce mysefl?
 My name is Phuong. I have more than three years experiences in Software Engineer. I have some big customer as Ford, Ocado, Wetherbys, Open University from UK market; Strut, Amways from US market and so on.
 I am familiar with front end technologies as AngularJS, Here Map API, Bootstrap farmwork and so on. 
-About back end technologies; with the presentation layout, I familiar build webapplication or build webservices. To build a webapp, I used to Spring MVC, JSP/Servlet With webservices, we could be built Restfull services or SOAP services. I used to Spring Webservices or Jersey to buill Restfull services; About SOAP, I used to 
+About back end technologies; with the presentation layer, I familiar with build webapplication or webservices. To build a webapp, I used to Spring MVC, JSP/Servlet. With webservices, we could built Restfull services or SOAP services. I used to Spring Webservices or Jersey to buill Restfull services and  for SOAP webservices 
+With the Services Layer/Business Layer ... With the Persistent layer, I used to JDBC, ORM Hibernate for
 My strength is self confidence, hard work and team work
 That all, thank you!</t>
   </si>
@@ -4844,6 +4845,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4855,54 +4904,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5424,394 +5425,394 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="160" zoomScaleNormal="100" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="64" customWidth="1"/>
-    <col min="2" max="2" width="122.140625" style="74" customWidth="1"/>
-    <col min="3" max="16384" width="14.42578125" style="69"/>
+    <col min="1" max="1" width="25.28515625" style="60" customWidth="1"/>
+    <col min="2" max="2" width="122.140625" style="70" customWidth="1"/>
+    <col min="3" max="16384" width="14.42578125" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="66" customFormat="1" ht="132" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:3" s="62" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A1" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="61" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="168" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="64" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="63" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="64" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="70"/>
+      <c r="C5" s="66"/>
     </row>
     <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.2">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="67" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="70"/>
+      <c r="C7" s="66"/>
     </row>
     <row r="8" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="64" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="192" x14ac:dyDescent="0.2">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="C9" s="70"/>
+      <c r="C9" s="66"/>
     </row>
     <row r="10" spans="1:3" ht="144" x14ac:dyDescent="0.2">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="67" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="67" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="67" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="67" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="67" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="36" x14ac:dyDescent="0.2">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="67" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="67" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="24" x14ac:dyDescent="0.2">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="67" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="64" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="144" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="67" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="108" x14ac:dyDescent="0.2">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="68" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="67" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="24" x14ac:dyDescent="0.2">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="64" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="36" x14ac:dyDescent="0.2">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="67" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="24" x14ac:dyDescent="0.2">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="64" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="67" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="72" x14ac:dyDescent="0.2">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="67" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="24" x14ac:dyDescent="0.2">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="67" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="84" x14ac:dyDescent="0.2">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="64" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="96" x14ac:dyDescent="0.2">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="67" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="67" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="68" t="s">
+      <c r="B31" s="64" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="72" x14ac:dyDescent="0.2">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="67" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="108" x14ac:dyDescent="0.2">
-      <c r="A33" s="60" t="s">
+      <c r="A33" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="67" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A34" s="60" t="s">
+      <c r="A34" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="67" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="108" x14ac:dyDescent="0.2">
-      <c r="A35" s="60" t="s">
+      <c r="A35" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="67" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="24" x14ac:dyDescent="0.2">
-      <c r="A36" s="60" t="s">
+      <c r="A36" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="71" t="s">
+      <c r="B36" s="67" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="36" x14ac:dyDescent="0.2">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="67" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A38" s="60" t="s">
+      <c r="A38" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="71" t="s">
+      <c r="B38" s="67" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="24" x14ac:dyDescent="0.2">
-      <c r="A39" s="60" t="s">
+      <c r="A39" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="71" t="s">
+      <c r="B39" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="144" x14ac:dyDescent="0.2">
-      <c r="A40" s="60" t="s">
+      <c r="A40" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="71" t="s">
+      <c r="B40" s="67" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="60" t="s">
+      <c r="A41" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="67" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A42" s="60" t="s">
+      <c r="A42" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="68" t="s">
+      <c r="B42" s="64" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="60" t="s">
+      <c r="A43" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="71" t="s">
+      <c r="B43" s="67" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="36" x14ac:dyDescent="0.2">
-      <c r="A44" s="60" t="s">
+      <c r="A44" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="71" t="s">
+      <c r="B44" s="67" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A45" s="60" t="s">
+      <c r="A45" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="73" t="s">
+      <c r="B45" s="69" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="36" x14ac:dyDescent="0.2">
-      <c r="A46" s="60" t="s">
+      <c r="A46" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="73"/>
+      <c r="B46" s="69"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="62"/>
+      <c r="A47" s="58"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="62"/>
+      <c r="A48" s="58"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="63"/>
+      <c r="A49" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.1" bottom="0.1" header="0.1" footer="0.1"/>
@@ -5923,7 +5924,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="71" t="s">
         <v>81</v>
       </c>
       <c r="B12" s="39" t="s">
@@ -5931,7 +5932,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="23" t="s">
         <v>82</v>
       </c>
@@ -6054,7 +6055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -6329,7 +6330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -6366,7 +6367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showWhiteSpace="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -6377,7 +6378,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="73" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="15" t="s">
@@ -6385,7 +6386,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="58"/>
+      <c r="A2" s="74"/>
       <c r="B2" s="16" t="s">
         <v>41</v>
       </c>
